--- a/data/xlsx/02042019.xlsx
+++ b/data/xlsx/02042019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\tiffany\susa\web-dev\police-logs\cleaned\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13BE44C-DE2A-4E31-8799-21D74AC89022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{432FC05C-0508-4F71-8520-A5275DBC5542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{6F503C56-E853-4E17-8019-B834818C1CD9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{9A416724-4A78-46BB-9A66-3313D4ED4EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="02042019" sheetId="1" r:id="rId1"/>
@@ -732,10 +732,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6E92E0-1A0F-4EAF-8EEC-83926FBA53FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFD28C-530E-44A7-AA62-91A5031A432B}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -918,11 +918,11 @@
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
+      <c r="F7" s="6">
+        <v>37.913651000000002</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-122.284806</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
@@ -1507,5 +1507,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>